--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502498.103930405</v>
+        <v>1606677.738381477</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>184.6448939492139</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.1592965985644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>108.5714959765557</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>89.94014789614081</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>191.2490250244974</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>314.7279496501373</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677254</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>221.7048515690723</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.829022425352115</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>109.6870817625081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>39.62050764638216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>126.9263824507434</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.4114987159138</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.9742079424025</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>125.2851635392061</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.36569740310427</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065582</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>163.9493858927449</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833212</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>132.1190787273717</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.452563354727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139987</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.3899067494191</v>
+        <v>3143.957356778932</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>3143.957356778932</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>2993.840717366596</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>2845.927623784203</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>2845.927623784203</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>2678.224787158922</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W4" t="n">
-        <v>830.0383715796588</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X4" t="n">
-        <v>830.0383715796588</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.0383715796588</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>751.950822890278</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779422</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723577</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.750018008651</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>252.750018008651</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>252.750018008651</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>252.750018008651</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.750018008651</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021781</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996071</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491139</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3033.629298638936</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>2864.693115711029</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>2714.576476298693</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>2566.6633827163</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.77343521839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4497.236778409372</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4208.16155175357</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3953.477063547683</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3664.059893510723</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>3436.070342612706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>3215.277763469176</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2490.32382148308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>3087.702309109632</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3227.225672628157</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>3058.28948970025</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>2908.172850287915</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2760.259756705521</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398593</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>4401.757925742791</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>4147.073437536905</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>3857.656267499944</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>3629.666716601927</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>3408.874137458397</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2333.297989183966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2897.617548589219</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C31" t="n">
-        <v>2728.681365661313</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3817.465313497967</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3528.048143461006</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>3300.058592562989</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>3079.266013419459</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3160.164713532175</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C37" t="n">
-        <v>3160.164713532175</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D37" t="n">
-        <v>3010.048074119839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>2862.134980537446</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318806</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.59775584152548</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>86.99395161137446</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>73.85777223953482</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>92.12028678808214</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891646</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.574752399523931</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>13.3019692955595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.37941682721026</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26316,19 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26335,25 +26337,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,19 +26524,19 @@
         <v>-996598.2799812543</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463382</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82063.7141953501</v>
+        <v>82063.71419534899</v>
       </c>
       <c r="F6" t="n">
-        <v>407476.1760027047</v>
+        <v>407476.1760027052</v>
       </c>
       <c r="G6" t="n">
-        <v>407476.1760027048</v>
+        <v>407476.1760027055</v>
       </c>
       <c r="H6" t="n">
         <v>407476.1760027049</v>
@@ -26543,25 +26545,25 @@
         <v>407476.1760027049</v>
       </c>
       <c r="J6" t="n">
-        <v>189944.9736054274</v>
+        <v>189944.9736054273</v>
       </c>
       <c r="K6" t="n">
-        <v>407476.176002705</v>
+        <v>407476.1760027049</v>
       </c>
       <c r="L6" t="n">
-        <v>407476.176002705</v>
+        <v>407476.1760027049</v>
       </c>
       <c r="M6" t="n">
-        <v>322421.1480671932</v>
+        <v>322421.1480671929</v>
       </c>
       <c r="N6" t="n">
-        <v>407476.176002705</v>
+        <v>407476.1760027049</v>
       </c>
       <c r="O6" t="n">
         <v>407476.1760027049</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027048</v>
+        <v>407476.1760027049</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>198.0889477142667</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.0786420574892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>36.18351893776513</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>196.5828504404502</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>174.0238667465102</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>71.50998900591628</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754824</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>64.81814676751873</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>376.1013476469097</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.0651767076268</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>127.6263134522457</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.07056488597461</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>379.4203056753693</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491755</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>285.886712892598</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>237.286271753351</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315398</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782678</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606677.738381477</v>
+        <v>1602665.128367483</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.6448939492139</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>35.99852294946763</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6613758678112</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>108.5714959765557</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y5" t="n">
-        <v>314.7279496501373</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.3306857988546</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>221.7048515690723</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.829022425352115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>109.6870817625077</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>105.8075447817132</v>
       </c>
       <c r="I10" t="n">
-        <v>58.28185552386348</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.9263824507434</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.80978492054845</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4114987159138</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9742079424025</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>181.3074675142866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>147.0536681065582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9493858927449</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>93.85094319419998</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>95.81917536083702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>18.95488441967092</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3143.957356778932</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C4" t="n">
-        <v>3143.957356778932</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D4" t="n">
-        <v>2993.840717366596</v>
+        <v>770.7703664058497</v>
       </c>
       <c r="E4" t="n">
-        <v>2845.927623784203</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>2845.927623784203</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>2678.224787158922</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404825</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>478.4305777370295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968308</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1238.038871968308</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>270.7141014741544</v>
       </c>
       <c r="G10" t="n">
-        <v>125.382677567399</v>
+        <v>270.7141014741544</v>
       </c>
       <c r="H10" t="n">
-        <v>125.382677567399</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143766</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400726</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400726</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277368</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277368</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277368</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703123</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.711814750802</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.250370848291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.1337314359553</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>483.2206378535622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>483.2206378535622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2285.118447313269</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F37" t="n">
         <v>317.6151975578602</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1811.200273012738</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1556.515784806851</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.09861476989</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2427.816735681603</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.59775584152548</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>86.99395161137446</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>15.88259428919238</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>1.574752399523931</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>87.17534280744461</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.42036229045077</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26340,10 +26340,10 @@
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
@@ -26352,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
@@ -26435,13 +26435,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-996598.2799812543</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463382</v>
+        <v>332146.4657463386</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463386</v>
       </c>
       <c r="E6" t="n">
-        <v>82063.71419534899</v>
+        <v>81716.33494099232</v>
       </c>
       <c r="F6" t="n">
-        <v>407476.1760027052</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="G6" t="n">
-        <v>407476.1760027055</v>
+        <v>407128.7967483477</v>
       </c>
       <c r="H6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.796748348</v>
       </c>
       <c r="I6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="J6" t="n">
-        <v>189944.9736054273</v>
+        <v>189597.5943510704</v>
       </c>
       <c r="K6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="L6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483477</v>
       </c>
       <c r="M6" t="n">
-        <v>322421.1480671929</v>
+        <v>322073.768812836</v>
       </c>
       <c r="N6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483479</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.0889477142667</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>350.239415706586</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.10151935391676e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.772586778757955</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36.18351893776513</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.50998900591628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>60.21826347731457</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>64.81814676751873</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>376.1013476469097</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>94.23088837711251</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>38.94747013260762</v>
       </c>
       <c r="I10" t="n">
-        <v>38.07056488597461</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565744</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753693</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.95065951213</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>237.286271753351</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602665.128367483</v>
+        <v>1604425.658670269</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.834206670628514</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.99852294946763</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>144.6613758678112</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>48.48304055307526</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>159.3306857988546</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.45803047044426</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493337</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>109.6870817625077</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>105.8075447817132</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>72.80978492054845</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>130.5513683573768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>213.7394996880296</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999737</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>34.69211367164826</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>93.85094319419998</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>18.16423677622371</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.95488441967092</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>11.56087338713362</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181855</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>770.7703664058497</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1251.839541207229</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>866.0512886089846</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>455.065383819377</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4305777370295</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>478.4305777370295</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>478.4305777370295</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.4305777370295</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.6040489720648</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C10" t="n">
-        <v>417.6040489720648</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D10" t="n">
-        <v>417.6040489720648</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E10" t="n">
-        <v>417.6040489720648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>270.7141014741544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>270.7141014741544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.6040489720648</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>210.4595134598044</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2285.118447313269</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.51698233621</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1776.441755680408</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1521.757267474521</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1232.340097437561</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>1004.350546539543</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>783.5579673960132</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9629114732377</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2427.816735681603</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2244.961901336507</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2244.961901336507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.886674680705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.202186474818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1411.785016437858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1183.79546553984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,16 +7499,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5956654067398</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0841272570751</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.88259428919238</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659547</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>145.139866510289</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012604</v>
       </c>
       <c r="S34" t="n">
-        <v>87.17534280744461</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.42036229045077</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>134.8730892594355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>524645.2897985042</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405256</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26435,13 +26435,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812543</v>
+        <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463386</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463386</v>
+        <v>332146.4657463385</v>
       </c>
       <c r="E6" t="n">
-        <v>81716.33494099232</v>
+        <v>82028.97626991387</v>
       </c>
       <c r="F6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="G6" t="n">
-        <v>407128.7967483477</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="H6" t="n">
-        <v>407128.796748348</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="I6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772689</v>
       </c>
       <c r="J6" t="n">
-        <v>189597.5943510704</v>
+        <v>189910.2356799916</v>
       </c>
       <c r="K6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772693</v>
       </c>
       <c r="L6" t="n">
-        <v>407128.7967483477</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="M6" t="n">
-        <v>322073.768812836</v>
+        <v>322386.4101417572</v>
       </c>
       <c r="N6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772694</v>
       </c>
       <c r="O6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="P6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772693</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>346.4067620467845</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>350.239415706586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.10151935391676e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.772586778757955</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.4386851003782</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>60.21826347731457</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661467</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923777</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>94.23088837711251</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>14.88174980530007</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>38.94747013260762</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>400.5469039565762</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>257.9506595121318</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36755,7 +36755,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
